--- a/V1000_Drive_Programmer/data/V1000_GRP_DESC.xlsx
+++ b/V1000_Drive_Programmer/data/V1000_GRP_DESC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>A1</t>
   </si>
@@ -92,15 +92,6 @@
     <t>E2</t>
   </si>
   <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>Initialization</t>
   </si>
   <si>
@@ -251,15 +239,6 @@
     <t>Motor Setup</t>
   </si>
   <si>
-    <t>Motor 2 V/f Pattern</t>
-  </si>
-  <si>
-    <t>Motor 2 Setup</t>
-  </si>
-  <si>
-    <t>PM Motor Setup</t>
-  </si>
-  <si>
     <t>Fault Detection During PG Speed Control</t>
   </si>
   <si>
@@ -333,9 +312,6 @@
   </si>
   <si>
     <t>DWEZ Parameters</t>
-  </si>
-  <si>
-    <t>Auto-Tuning</t>
   </si>
   <si>
     <t>DriveWorksEZ Connection</t>
@@ -670,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,16 +660,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -718,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -732,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>41</v>
@@ -746,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>51</v>
@@ -760,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>58</v>
@@ -774,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>72</v>
@@ -788,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>74</v>
@@ -802,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>102</v>
@@ -816,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>106</v>
@@ -830,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>112</v>
@@ -844,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>124</v>
@@ -858,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>128</v>
@@ -872,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>133</v>
@@ -886,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>139</v>
@@ -900,7 +876,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>144</v>
@@ -914,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>149</v>
@@ -928,7 +904,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18">
         <v>166</v>
@@ -942,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D19">
         <v>169</v>
@@ -956,7 +932,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>173</v>
@@ -970,7 +946,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>182</v>
@@ -984,7 +960,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D22">
         <v>185</v>
@@ -998,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>197</v>
@@ -1006,13 +982,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24">
         <v>209</v>
@@ -1020,237 +996,237 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>234</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27">
-        <v>244</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>252</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D33">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D36">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D37">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>420</v>
@@ -1258,184 +1234,128 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D42">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D43">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D44">
-        <v>455</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D45">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D46">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D47">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D48">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D49">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D50">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D54">
-        <v>600</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/V1000_Drive_Programmer/data/V1000_GRP_DESC.xlsx
+++ b/V1000_Drive_Programmer/data/V1000_GRP_DESC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sferry\source\repos\V1000_Drive_Programmer\V1000_Drive_Programmer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\VFD_Prog_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="28800" windowHeight="12915"/>
+    <workbookView xWindow="6615" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>A1</t>
   </si>
@@ -233,12 +233,6 @@
     <t>Offset Frequency</t>
   </si>
   <si>
-    <t>V/f Pattern</t>
-  </si>
-  <si>
-    <t>Motor Setup</t>
-  </si>
-  <si>
     <t>Fault Detection During PG Speed Control</t>
   </si>
   <si>
@@ -330,6 +324,24 @@
   </si>
   <si>
     <t>Speed Feedback Detection</t>
+  </si>
+  <si>
+    <t>Motor 1 V/f Characteristics</t>
+  </si>
+  <si>
+    <t>Motor 2 V/f Characteristics</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Motor 1 Parameters</t>
+  </si>
+  <si>
+    <t>Motor 2 Parameters</t>
   </si>
 </sst>
 </file>
@@ -646,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,16 +672,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -960,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <v>185</v>
@@ -974,7 +986,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D23">
         <v>197</v>
@@ -982,13 +994,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D24">
         <v>209</v>
@@ -996,83 +1008,83 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>298</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D29">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>321</v>
@@ -1080,139 +1092,139 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D31">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D32">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D34">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D35">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D36">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D37">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D38">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D39">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D40">
         <v>401</v>
@@ -1220,142 +1232,170 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D41">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D42">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D43">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D44">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D45">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D46">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D47">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D48">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D49">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50">
-        <v>524</v>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
